--- a/relatorios/repasses_liberados/dentistas/01386516473/2023-08-25_relatorio_repasses_01386516473.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01386516473/2023-08-25_relatorio_repasses_01386516473.xlsx
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>0</v>
       </c>
       <c r="M699">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N699">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N704">
         <v>0</v>
@@ -33036,7 +33036,7 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N717">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N726">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N737">
         <v>0</v>
@@ -34092,7 +34092,7 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N741">
         <v>0</v>
@@ -34400,7 +34400,7 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N748">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N749">
         <v>0</v>
@@ -34576,7 +34576,7 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N752">
         <v>0</v>
@@ -34620,7 +34620,7 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N753">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N755">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N757">
         <v>0</v>
@@ -37656,7 +37656,7 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N822">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N823">
         <v>0</v>
@@ -37744,7 +37744,7 @@
         <v>0</v>
       </c>
       <c r="M824">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N824">
         <v>0</v>
@@ -38360,7 +38360,7 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N838">
         <v>0</v>
@@ -38404,7 +38404,7 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N839">
         <v>0</v>
@@ -40692,7 +40692,7 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N891">
         <v>0</v>
@@ -40736,7 +40736,7 @@
         <v>0</v>
       </c>
       <c r="M892">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N892">
         <v>0</v>
@@ -40780,7 +40780,7 @@
         <v>0</v>
       </c>
       <c r="M893">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N893">
         <v>0</v>
@@ -44036,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N967">
         <v>0</v>
@@ -44212,7 +44212,7 @@
         <v>0</v>
       </c>
       <c r="M971">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N971">
         <v>0</v>
@@ -44256,7 +44256,7 @@
         <v>0</v>
       </c>
       <c r="M972">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N972">
         <v>0</v>
@@ -44300,7 +44300,7 @@
         <v>0</v>
       </c>
       <c r="M973">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N973">
         <v>0</v>
@@ -44344,7 +44344,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N974">
         <v>0</v>
@@ -45356,7 +45356,7 @@
         <v>0</v>
       </c>
       <c r="M997">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N997">
         <v>0</v>
@@ -47512,7 +47512,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -47556,7 +47556,7 @@
         <v>0</v>
       </c>
       <c r="M1047">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1047">
         <v>0</v>
@@ -48744,7 +48744,7 @@
         <v>0</v>
       </c>
       <c r="M1074">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1074">
         <v>0</v>
@@ -49360,7 +49360,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1097">
         <v>0</v>
@@ -49800,7 +49800,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1098">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/01386516473/2023-08-25_relatorio_repasses_01386516473.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01386516473/2023-08-25_relatorio_repasses_01386516473.xlsx
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -13632,10 +13632,10 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N276">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -13676,10 +13676,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N277">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13720,10 +13720,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N278">
-        <v>7.244999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -14072,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N286">
-        <v>7.244999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -14380,10 +14380,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14424,10 +14424,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14820,10 +14820,10 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N303">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -15348,10 +15348,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15392,10 +15392,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15700,10 +15700,10 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N323">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -16052,10 +16052,10 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N331">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -16096,10 +16096,10 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N332">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -17064,10 +17064,10 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N354">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -17108,10 +17108,10 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N355">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -17680,10 +17680,10 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N368">
-        <v>0.03</v>
+        <v>65</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -17988,10 +17988,10 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N375">
-        <v>8.928000000000001</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -18032,10 +18032,10 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
-        <v>14.88</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -18208,10 +18208,10 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N380">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -18252,10 +18252,10 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N381">
-        <v>5.184</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -18780,10 +18780,10 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N393">
-        <v>8.007</v>
+        <v>10.676</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -19352,10 +19352,10 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N406">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -19924,10 +19924,10 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N419">
-        <v>8.385</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -20056,10 +20056,10 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N422">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -20100,10 +20100,10 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -21992,10 +21992,10 @@
         <v>0</v>
       </c>
       <c r="M466">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N466">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="467" spans="1:14">
@@ -22036,10 +22036,10 @@
         <v>0</v>
       </c>
       <c r="M467">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N467">
-        <v>7.244999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -22168,10 +22168,10 @@
         <v>0</v>
       </c>
       <c r="M470">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N470">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:14">
@@ -22652,10 +22652,10 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N481">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -22916,10 +22916,10 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N487">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:14">
@@ -23532,10 +23532,10 @@
         <v>0</v>
       </c>
       <c r="M501">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N501">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="502" spans="1:14">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N502">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="503" spans="1:14">
@@ -23708,10 +23708,10 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N505">
-        <v>0.003</v>
+        <v>65</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N506">
-        <v>0.003</v>
+        <v>65</v>
       </c>
     </row>
     <row r="507" spans="1:14">
@@ -24060,10 +24060,10 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N513">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:14">
@@ -24368,10 +24368,10 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N520">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:14">
@@ -24764,10 +24764,10 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:14">
@@ -24808,10 +24808,10 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N530">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="531" spans="1:14">
@@ -25732,10 +25732,10 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="552" spans="1:14">
@@ -26348,10 +26348,10 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N565">
-        <v>8.928000000000001</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -26568,10 +26568,10 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N570">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -26612,10 +26612,10 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N571">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -26656,10 +26656,10 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N572">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -27228,10 +27228,10 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N585">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" spans="1:14">
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N586">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="587" spans="1:14">
@@ -27316,10 +27316,10 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N587">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="588" spans="1:14">
@@ -28152,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N606">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="607" spans="1:14">
@@ -28416,10 +28416,10 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N612">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="613" spans="1:14">
@@ -29868,10 +29868,10 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N645">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="646" spans="1:14">
@@ -29912,10 +29912,10 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N646">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="647" spans="1:14">
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N648">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="649" spans="1:14">
@@ -30176,10 +30176,10 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N652">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -30220,10 +30220,10 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N653">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -30396,10 +30396,10 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N657">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -30440,10 +30440,10 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N658">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="659" spans="1:14">
@@ -30484,10 +30484,10 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="660" spans="1:14">
@@ -30528,10 +30528,10 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N660">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="661" spans="1:14">
@@ -30572,10 +30572,10 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N661">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="662" spans="1:14">
@@ -31056,7 +31056,7 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N672">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -31584,7 +31584,7 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N685">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N695">
         <v>0</v>
@@ -32200,7 +32200,7 @@
         <v>0</v>
       </c>
       <c r="M698">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N698">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>0</v>
       </c>
       <c r="M699">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N699">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
       <c r="M701">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N701">
         <v>0</v>
@@ -32376,7 +32376,7 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N702">
         <v>0</v>
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
       <c r="M703">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N703">
         <v>0</v>
@@ -32508,7 +32508,7 @@
         <v>0</v>
       </c>
       <c r="M705">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N705">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N706">
         <v>0</v>
@@ -32772,7 +32772,7 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N711">
         <v>0</v>
@@ -32860,7 +32860,7 @@
         <v>0</v>
       </c>
       <c r="M713">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N713">
         <v>0</v>
@@ -33036,7 +33036,7 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N717">
         <v>0</v>
@@ -33212,7 +33212,7 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N721">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>0</v>
       </c>
       <c r="M722">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N722">
         <v>0</v>
@@ -33344,7 +33344,7 @@
         <v>0</v>
       </c>
       <c r="M724">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N724">
         <v>0</v>
@@ -33476,7 +33476,7 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N727">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N728">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N733">
         <v>0</v>
@@ -33784,7 +33784,7 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N734">
         <v>0</v>
@@ -33872,7 +33872,7 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N736">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N737">
         <v>0</v>
@@ -34312,7 +34312,7 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N746">
         <v>0</v>
@@ -34356,7 +34356,7 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N747">
         <v>0</v>
@@ -34400,7 +34400,7 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N748">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N749">
         <v>0</v>
@@ -34532,7 +34532,7 @@
         <v>0</v>
       </c>
       <c r="M751">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N751">
         <v>0</v>
@@ -34664,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N754">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N755">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N757">
         <v>0</v>
@@ -34972,10 +34972,10 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N761">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="762" spans="1:14">
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="M773">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N773">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N775">
         <v>0</v>
@@ -35676,7 +35676,7 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N777">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N778">
         <v>0</v>
@@ -35852,7 +35852,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N781">
         <v>0</v>
@@ -35940,7 +35940,7 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N783">
         <v>0</v>
@@ -36204,7 +36204,7 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N789">
         <v>0</v>
@@ -36248,7 +36248,7 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N790">
         <v>0</v>
@@ -36336,7 +36336,7 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N792">
         <v>0</v>
@@ -36380,7 +36380,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36424,7 +36424,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36468,7 +36468,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36512,7 +36512,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36776,7 +36776,7 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N802">
         <v>0</v>
@@ -36820,7 +36820,7 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N803">
         <v>0</v>
@@ -36952,7 +36952,7 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N806">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>0</v>
       </c>
       <c r="M809">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N809">
         <v>0</v>
@@ -37128,7 +37128,7 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N810">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N811">
         <v>0</v>
@@ -37304,7 +37304,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37348,7 +37348,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37392,7 +37392,7 @@
         <v>0</v>
       </c>
       <c r="M816">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N816">
         <v>0</v>
@@ -37524,7 +37524,7 @@
         <v>0</v>
       </c>
       <c r="M819">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N819">
         <v>0</v>
@@ -37656,7 +37656,7 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N822">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N823">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N827">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -38228,7 +38228,7 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N835">
         <v>0</v>
@@ -38272,7 +38272,7 @@
         <v>0</v>
       </c>
       <c r="M836">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N836">
         <v>0</v>
@@ -38360,7 +38360,7 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N838">
         <v>0</v>
@@ -38448,7 +38448,7 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N840">
         <v>0</v>
@@ -38536,7 +38536,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N842">
         <v>0</v>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N843">
         <v>0</v>
@@ -38624,7 +38624,7 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N844">
         <v>0</v>
@@ -38976,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="M852">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N852">
         <v>0</v>
@@ -39372,7 +39372,7 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N861">
         <v>0</v>
@@ -39416,7 +39416,7 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N862">
         <v>0</v>
@@ -39460,7 +39460,7 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N863">
         <v>0</v>
@@ -39724,7 +39724,7 @@
         <v>0</v>
       </c>
       <c r="M869">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N869">
         <v>0</v>
@@ -39768,7 +39768,7 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N870">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N877">
         <v>0</v>
@@ -40648,7 +40648,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -40692,7 +40692,7 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N891">
         <v>0</v>
@@ -40780,7 +40780,7 @@
         <v>0</v>
       </c>
       <c r="M893">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N893">
         <v>0</v>
@@ -40824,7 +40824,7 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N894">
         <v>0</v>
@@ -40868,7 +40868,7 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N895">
         <v>0</v>
@@ -40912,7 +40912,7 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N896">
         <v>0</v>
@@ -40956,7 +40956,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N897">
         <v>0</v>
@@ -41132,10 +41132,10 @@
         <v>0.174359</v>
       </c>
       <c r="M901">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N901">
-        <v>3.556923599999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:14">
@@ -41440,7 +41440,7 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N908">
         <v>0</v>
@@ -41484,7 +41484,7 @@
         <v>0</v>
       </c>
       <c r="M909">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N909">
         <v>0</v>
@@ -41616,7 +41616,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N916">
         <v>0</v>
@@ -41836,7 +41836,7 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N917">
         <v>0</v>
@@ -41880,7 +41880,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -41924,7 +41924,7 @@
         <v>0</v>
       </c>
       <c r="M919">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N919">
         <v>0</v>
@@ -41968,7 +41968,7 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N920">
         <v>0</v>
@@ -42100,7 +42100,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42144,7 +42144,7 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N924">
         <v>0</v>
@@ -42188,7 +42188,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -42848,7 +42848,7 @@
         <v>0</v>
       </c>
       <c r="M940">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N940">
         <v>0</v>
@@ -42980,7 +42980,7 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N943">
         <v>0</v>
@@ -43024,7 +43024,7 @@
         <v>0</v>
       </c>
       <c r="M944">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N944">
         <v>0</v>
@@ -43068,7 +43068,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43112,7 +43112,7 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N946">
         <v>0</v>
@@ -43640,7 +43640,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -43684,7 +43684,7 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N959">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         <v>0</v>
       </c>
       <c r="M966">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N966">
         <v>0</v>
@@ -44036,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N967">
         <v>0</v>
@@ -44080,7 +44080,7 @@
         <v>0</v>
       </c>
       <c r="M968">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N968">
         <v>0</v>
@@ -44124,7 +44124,7 @@
         <v>0</v>
       </c>
       <c r="M969">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N969">
         <v>0</v>
@@ -44168,7 +44168,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N970">
         <v>0</v>
@@ -44212,7 +44212,7 @@
         <v>0</v>
       </c>
       <c r="M971">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N971">
         <v>0</v>
@@ -44344,7 +44344,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N974">
         <v>0</v>
@@ -44388,7 +44388,7 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N975">
         <v>0</v>
@@ -44432,7 +44432,7 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N976">
         <v>0</v>
@@ -45092,7 +45092,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -45224,7 +45224,7 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N994">
         <v>0</v>
@@ -45268,7 +45268,7 @@
         <v>0</v>
       </c>
       <c r="M995">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N995">
         <v>0</v>
@@ -45312,7 +45312,7 @@
         <v>0</v>
       </c>
       <c r="M996">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N996">
         <v>0</v>
@@ -45356,7 +45356,7 @@
         <v>0</v>
       </c>
       <c r="M997">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N997">
         <v>0</v>
@@ -45444,7 +45444,7 @@
         <v>0</v>
       </c>
       <c r="M999">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N999">
         <v>0</v>
@@ -45620,7 +45620,7 @@
         <v>0</v>
       </c>
       <c r="M1003">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1003">
         <v>0</v>
@@ -45664,7 +45664,7 @@
         <v>0</v>
       </c>
       <c r="M1004">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N1004">
         <v>0</v>
@@ -45708,7 +45708,7 @@
         <v>0</v>
       </c>
       <c r="M1005">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N1005">
         <v>0</v>
@@ -45840,7 +45840,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -45884,7 +45884,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46104,7 +46104,7 @@
         <v>0</v>
       </c>
       <c r="M1014">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1014">
         <v>0</v>
@@ -46236,7 +46236,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -46280,7 +46280,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -46324,7 +46324,7 @@
         <v>0</v>
       </c>
       <c r="M1019">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1019">
         <v>0</v>
@@ -46368,7 +46368,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -46412,7 +46412,7 @@
         <v>0</v>
       </c>
       <c r="M1021">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1021">
         <v>0</v>
@@ -46456,7 +46456,7 @@
         <v>0</v>
       </c>
       <c r="M1022">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1022">
         <v>0</v>
@@ -46500,7 +46500,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -46544,7 +46544,7 @@
         <v>0</v>
       </c>
       <c r="M1024">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1024">
         <v>0</v>
@@ -46896,7 +46896,7 @@
         <v>0</v>
       </c>
       <c r="M1032">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1032">
         <v>0</v>
@@ -46940,7 +46940,7 @@
         <v>0</v>
       </c>
       <c r="M1033">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1033">
         <v>0</v>
@@ -47028,7 +47028,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -47072,7 +47072,7 @@
         <v>0</v>
       </c>
       <c r="M1036">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1036">
         <v>0</v>
@@ -47248,7 +47248,7 @@
         <v>0</v>
       </c>
       <c r="M1040">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1040">
         <v>0</v>
@@ -47292,7 +47292,7 @@
         <v>0</v>
       </c>
       <c r="M1041">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1041">
         <v>0</v>
@@ -47336,7 +47336,7 @@
         <v>0</v>
       </c>
       <c r="M1042">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1042">
         <v>0</v>
@@ -47512,7 +47512,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -47556,7 +47556,7 @@
         <v>0</v>
       </c>
       <c r="M1047">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1047">
         <v>0</v>
@@ -47600,7 +47600,7 @@
         <v>0</v>
       </c>
       <c r="M1048">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1048">
         <v>0</v>
@@ -47776,7 +47776,7 @@
         <v>0</v>
       </c>
       <c r="M1052">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1052">
         <v>0</v>
@@ -47820,7 +47820,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1053">
         <v>0</v>
@@ -48920,7 +48920,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -48964,7 +48964,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -49008,7 +49008,7 @@
         <v>0</v>
       </c>
       <c r="M1080">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1080">
         <v>0</v>
@@ -49184,7 +49184,7 @@
         <v>0</v>
       </c>
       <c r="M1084">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1084">
         <v>0</v>
@@ -49228,7 +49228,7 @@
         <v>0</v>
       </c>
       <c r="M1085">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1085">
         <v>0</v>
@@ -49404,7 +49404,7 @@
         <v>0</v>
       </c>
       <c r="M1089">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1089">
         <v>0</v>
@@ -49448,7 +49448,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1090">
         <v>0</v>
@@ -49492,7 +49492,7 @@
         <v>0</v>
       </c>
       <c r="M1091">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1091">
         <v>0</v>
@@ -49536,7 +49536,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -49712,7 +49712,7 @@
         <v>0</v>
       </c>
       <c r="M1096">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1096">
         <v>0</v>
@@ -49800,7 +49800,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1098">
         <v>0</v>
